--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value185.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value185.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118794743684765</v>
+        <v>6.767081260681152</v>
       </c>
       <c r="B1">
-        <v>1.442033731769714</v>
+        <v>5.657371044158936</v>
       </c>
       <c r="C1">
-        <v>2.18155733375691</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.50835047078747</v>
+        <v>3.16493821144104</v>
       </c>
       <c r="E1">
-        <v>1.020595967917204</v>
+        <v>1.867285370826721</v>
       </c>
     </row>
   </sheetData>
